--- a/aufgaben/Aufgaben.xlsx
+++ b/aufgaben/Aufgaben.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Downloads\git\fotobox-aufgaben\aufgaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07921C74-EFB4-47F6-A83B-F598B8A762A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72420ED-0E61-4F2D-B146-D0F2C1A9611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6E1F607-7BFD-4290-BAE7-3879840C6718}"/>
+    <workbookView xWindow="2124" yWindow="6156" windowWidth="17148" windowHeight="5640" xr2:uid="{D6E1F607-7BFD-4290-BAE7-3879840C6718}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:A209"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/aufgaben/Aufgaben.xlsx
+++ b/aufgaben/Aufgaben.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Downloads\git\fotobox-aufgaben\aufgaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72420ED-0E61-4F2D-B146-D0F2C1A9611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF54F69-9622-404C-AA88-702C00BD38EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="6156" windowWidth="17148" windowHeight="5640" xr2:uid="{D6E1F607-7BFD-4290-BAE7-3879840C6718}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6E1F607-7BFD-4290-BAE7-3879840C6718}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
   <si>
     <t>Mache ein Foto mit dem Vater der Braut.</t>
   </si>
@@ -441,12 +441,6 @@
     <t>Mache ein Foto, auf dem du zusammen mit mindestens zwei Personen den Bräutigam hochhebst.</t>
   </si>
   <si>
-    <t>Jemanden, der den Bräutigam seit der Kindheit kennt.</t>
-  </si>
-  <si>
-    <t>Jemanden, der den Bräutigam schon über zehn Jahre kennt.</t>
-  </si>
-  <si>
     <t>Mache ein Foto mit Braut und Bräutigam.</t>
   </si>
   <si>
@@ -649,6 +643,15 @@
   </si>
   <si>
     <t>Mache ein Foto mit dem Bräutigam.</t>
+  </si>
+  <si>
+    <t>Mache ein Foto mit Essen.</t>
+  </si>
+  <si>
+    <t>Mache ein Foto, mit jemanden, der den Bräutigam seit der Kindheit kennt.</t>
+  </si>
+  <si>
+    <t>Mache ein Foto mit jemanden, der den Bräutigam schon über zehn Jahre kennt.</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C268800-DF60-4C22-9503-33C24D79C922}">
-  <dimension ref="A1:A209"/>
+  <dimension ref="A1:A210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1708,352 +1711,357 @@
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
